--- a/Covariance.xlsx
+++ b/Covariance.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Covariance" sheetId="1" r:id="rId1"/>
+    <sheet name="Covariance data analysis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>Group1</t>
   </si>
@@ -38,14 +39,29 @@
     <t>Covariance of Population</t>
   </si>
   <si>
-    <t>http://Best-Excel-Tutorial.com</t>
+    <t>Group3</t>
+  </si>
+  <si>
+    <t>Group4</t>
+  </si>
+  <si>
+    <t>Group5</t>
+  </si>
+  <si>
+    <t>Group6</t>
+  </si>
+  <si>
+    <t>Group7</t>
+  </si>
+  <si>
+    <t>https://Best-Excel-Tutorial.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +73,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,7 +100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -84,13 +108,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,10 +504,10 @@
       <c r="B7">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -493,4 +542,418 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>42</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <f>VARP('Covariance data analysis'!$A$2:$A$10)</f>
+        <v>722.76543209876547</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>41</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-1.3086419753086425</v>
+      </c>
+      <c r="K3" s="1">
+        <f>VARP('Covariance data analysis'!$B$2:$B$10)</f>
+        <v>25.283950617283949</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-39.716049382716037</v>
+      </c>
+      <c r="K4" s="1">
+        <v>8.7654320987654337</v>
+      </c>
+      <c r="L4" s="1">
+        <f>VARP('Covariance data analysis'!$C$2:$C$10)</f>
+        <v>174.24691358024691</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>42</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-41.567901234567898</v>
+      </c>
+      <c r="K5" s="1">
+        <v>28.246913580246911</v>
+      </c>
+      <c r="L5" s="1">
+        <v>30.395061728395049</v>
+      </c>
+      <c r="M5" s="1">
+        <f>VARP('Covariance data analysis'!$D$2:$D$10)</f>
+        <v>68.320987654320987</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1">
+        <v>22.703703703703713</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-26.407407407407408</v>
+      </c>
+      <c r="L6" s="1">
+        <v>99.814814814814795</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-4.2962962962962941</v>
+      </c>
+      <c r="N6" s="1">
+        <f>VARP('Covariance data analysis'!$E$2:$E$10)</f>
+        <v>125.33333333333333</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>108</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-73.432098765432102</v>
+      </c>
+      <c r="K7" s="1">
+        <v>50.197530864197532</v>
+      </c>
+      <c r="L7" s="1">
+        <v>10.493827160493831</v>
+      </c>
+      <c r="M7" s="1">
+        <v>51.679012345679013</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-29.592592592592595</v>
+      </c>
+      <c r="O7" s="1">
+        <f>VARP('Covariance data analysis'!$F$2:$F$10)</f>
+        <v>215.65432098765433</v>
+      </c>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2">
+        <v>-15.259259259259263</v>
+      </c>
+      <c r="K8" s="2">
+        <v>9.2962962962962958</v>
+      </c>
+      <c r="L8" s="2">
+        <v>-56.81481481481481</v>
+      </c>
+      <c r="M8" s="2">
+        <v>9.2962962962962958</v>
+      </c>
+      <c r="N8" s="2">
+        <v>-55.999999999999993</v>
+      </c>
+      <c r="O8" s="2">
+        <v>12.703703703703702</v>
+      </c>
+      <c r="P8" s="2">
+        <f>VARP('Covariance data analysis'!$G$2:$G$10)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>42</v>
+      </c>
+      <c r="G9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>51</v>
+      </c>
+      <c r="G10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B12:E12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>